--- a/data/cleaned_data/Krankenhäuser.xlsx
+++ b/data/cleaned_data/Krankenhäuser.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\uni\DALI\excel datein\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathan.bach/Documents/GitHub/Repositorys/Streamlit-Application-for-Data-Literacy-1/data/cleaned_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79693E5-E147-456E-9B0A-1B3968EE7019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655D1BB9-43ED-464A-9C9B-44B626E34FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BBFABB22-232B-4A0A-A1BA-02F91EC2A332}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="19420" windowHeight="10300" xr2:uid="{BBFABB22-232B-4A0A-A1BA-02F91EC2A332}"/>
   </bookViews>
   <sheets>
     <sheet name="Krankenhäuser" sheetId="2" r:id="rId1"/>
@@ -506,7 +506,7 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExterneDaten_1" connectionId="1" xr16:uid="{72AB4809-794B-4D09-8A93-123DCEB24811}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="10">
+  <queryTableRefresh nextId="12">
     <queryTableFields count="9">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
       <queryTableField id="2" name="Column2" tableColumnId="2"/>
@@ -528,9 +528,9 @@
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{B4C05326-5427-4DC9-8DEE-554CA5C6B9B8}" uniqueName="1" name="Jahre " queryTableFieldId="1" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{E6F49419-E79A-4690-81B7-013B96FA5BDD}" uniqueName="2" name="Krankenhäuser Anzahl" queryTableFieldId="2" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{085A961F-9FE9-4D66-9382-6AC5DD3F9F38}" uniqueName="3" name="Betten Anzahl" queryTableFieldId="3" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{48834E90-3490-46A0-8F84-A40EB2037C70}" uniqueName="4" name="Betten je 100.000 Einwohner anzahl" queryTableFieldId="4" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{4543BD6A-7A2C-484F-AF74-1429E1CF3E69}" uniqueName="5" name="Patienten Anzahl" queryTableFieldId="5" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{085A961F-9FE9-4D66-9382-6AC5DD3F9F38}" uniqueName="3" name="Patienten Anzahl" queryTableFieldId="3" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{48834E90-3490-46A0-8F84-A40EB2037C70}" uniqueName="4" name="Betten Anzahl" queryTableFieldId="4" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{4543BD6A-7A2C-484F-AF74-1429E1CF3E69}" uniqueName="5" name="Betten je 100.000 Einwohner anzahl" queryTableFieldId="5" dataDxfId="4"/>
     <tableColumn id="6" xr3:uid="{365A1B5D-A908-48F4-947D-A174D25B4E10}" uniqueName="6" name="Patienten je 100.000 Einwohner Anzahl" queryTableFieldId="6" dataDxfId="3"/>
     <tableColumn id="7" xr3:uid="{C33113C6-E481-49FD-909B-09E26080A349}" uniqueName="7" name="Berechnungs-/Belegungstage 1:1000" queryTableFieldId="7" dataDxfId="2"/>
     <tableColumn id="8" xr3:uid="{A44F72EF-49E0-4E70-99CE-E8944C5DEC13}" uniqueName="8" name="Durchschnittliche Verweildauer Tage" queryTableFieldId="8" dataDxfId="1"/>
@@ -541,9 +541,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -581,7 +581,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -687,7 +687,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -829,7 +829,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -839,24 +839,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B893BA6-2283-4461-B8B1-0D582D7FDDF4}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>116</v>
       </c>
@@ -864,13 +864,13 @@
         <v>117</v>
       </c>
       <c r="C1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" t="s">
         <v>119</v>
-      </c>
-      <c r="E1" t="s">
-        <v>120</v>
       </c>
       <c r="F1" t="s">
         <v>121</v>
@@ -885,490 +885,487 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" t="s">
         <v>59</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" t="s">
         <v>66</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" t="s">
         <v>73</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" t="s">
         <v>74</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" t="s">
         <v>75</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" t="s">
         <v>79</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" t="s">
         <v>82</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" t="s">
         <v>83</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" t="s">
         <v>75</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>84</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" t="s">
         <v>89</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" t="s">
         <v>90</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" t="s">
         <v>75</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" t="s">
         <v>98</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" t="s">
         <v>75</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" t="s">
         <v>102</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" t="s">
         <v>105</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" t="s">
         <v>106</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" t="s">
         <v>75</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>108</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" t="s">
         <v>110</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" t="s">
         <v>113</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" t="s">
         <v>114</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" t="s">
         <v>75</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1386,7 +1383,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/cleaned_data/Krankenhäuser.xlsx
+++ b/data/cleaned_data/Krankenhäuser.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathan.bach/Documents/GitHub/Repositorys/Streamlit-Application-for-Data-Literacy-1/data/cleaned_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655D1BB9-43ED-464A-9C9B-44B626E34FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF451BA-155B-3441-AEAE-6D799C0099FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="19420" windowHeight="10300" xr2:uid="{BBFABB22-232B-4A0A-A1BA-02F91EC2A332}"/>
   </bookViews>
   <sheets>
     <sheet name="Krankenhäuser" sheetId="2" r:id="rId1"/>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="ExterneDaten_1" localSheetId="0" hidden="1">Krankenhäuser!$A$1:$I$18</definedName>
@@ -456,9 +455,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -506,7 +504,7 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExterneDaten_1" connectionId="1" xr16:uid="{72AB4809-794B-4D09-8A93-123DCEB24811}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="12">
+  <queryTableRefresh nextId="13">
     <queryTableFields count="9">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
       <queryTableField id="2" name="Column2" tableColumnId="2"/>
@@ -528,8 +526,8 @@
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{B4C05326-5427-4DC9-8DEE-554CA5C6B9B8}" uniqueName="1" name="Jahre " queryTableFieldId="1" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{E6F49419-E79A-4690-81B7-013B96FA5BDD}" uniqueName="2" name="Krankenhäuser Anzahl" queryTableFieldId="2" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{085A961F-9FE9-4D66-9382-6AC5DD3F9F38}" uniqueName="3" name="Patienten Anzahl" queryTableFieldId="3" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{48834E90-3490-46A0-8F84-A40EB2037C70}" uniqueName="4" name="Betten Anzahl" queryTableFieldId="4" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{085A961F-9FE9-4D66-9382-6AC5DD3F9F38}" uniqueName="3" name="Betten Anzahl" queryTableFieldId="3" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{48834E90-3490-46A0-8F84-A40EB2037C70}" uniqueName="4" name="Patienten Anzahl" queryTableFieldId="4" dataDxfId="5"/>
     <tableColumn id="5" xr3:uid="{4543BD6A-7A2C-484F-AF74-1429E1CF3E69}" uniqueName="5" name="Betten je 100.000 Einwohner anzahl" queryTableFieldId="5" dataDxfId="4"/>
     <tableColumn id="6" xr3:uid="{365A1B5D-A908-48F4-947D-A174D25B4E10}" uniqueName="6" name="Patienten je 100.000 Einwohner Anzahl" queryTableFieldId="6" dataDxfId="3"/>
     <tableColumn id="7" xr3:uid="{C33113C6-E481-49FD-909B-09E26080A349}" uniqueName="7" name="Berechnungs-/Belegungstage 1:1000" queryTableFieldId="7" dataDxfId="2"/>
@@ -840,7 +838,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -864,10 +862,10 @@
         <v>117</v>
       </c>
       <c r="C1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" t="s">
         <v>120</v>
-      </c>
-      <c r="D1" t="s">
-        <v>118</v>
       </c>
       <c r="E1" t="s">
         <v>119</v>
@@ -893,12 +891,12 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
       <c r="F2" t="s">
@@ -922,12 +920,12 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>16</v>
       </c>
       <c r="F3" t="s">
@@ -951,12 +949,12 @@
         <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>25</v>
       </c>
       <c r="F4" t="s">
@@ -980,12 +978,12 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
         <v>33</v>
       </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>32</v>
       </c>
       <c r="F5" t="s">
@@ -1009,12 +1007,12 @@
         <v>38</v>
       </c>
       <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
         <v>41</v>
       </c>
-      <c r="D6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>40</v>
       </c>
       <c r="F6" t="s">
@@ -1038,12 +1036,12 @@
         <v>46</v>
       </c>
       <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
         <v>49</v>
       </c>
-      <c r="D7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>48</v>
       </c>
       <c r="F7" t="s">
@@ -1067,12 +1065,12 @@
         <v>54</v>
       </c>
       <c r="C8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" t="s">
         <v>57</v>
       </c>
-      <c r="D8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>56</v>
       </c>
       <c r="F8" t="s">
@@ -1096,12 +1094,12 @@
         <v>61</v>
       </c>
       <c r="C9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" t="s">
         <v>64</v>
       </c>
-      <c r="D9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>63</v>
       </c>
       <c r="F9" t="s">
@@ -1125,12 +1123,12 @@
         <v>69</v>
       </c>
       <c r="C10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" t="s">
         <v>72</v>
       </c>
-      <c r="D10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>71</v>
       </c>
       <c r="F10" t="s">
@@ -1154,12 +1152,12 @@
         <v>78</v>
       </c>
       <c r="C11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" t="s">
         <v>81</v>
       </c>
-      <c r="D11" t="s">
-        <v>79</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>80</v>
       </c>
       <c r="F11" t="s">
@@ -1183,12 +1181,12 @@
         <v>85</v>
       </c>
       <c r="C12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" t="s">
         <v>88</v>
       </c>
-      <c r="D12" t="s">
-        <v>86</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>87</v>
       </c>
       <c r="F12" t="s">
@@ -1212,12 +1210,12 @@
         <v>93</v>
       </c>
       <c r="C13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" t="s">
         <v>96</v>
       </c>
-      <c r="D13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" t="s">
         <v>95</v>
       </c>
       <c r="F13" t="s">
@@ -1241,12 +1239,12 @@
         <v>101</v>
       </c>
       <c r="C14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" t="s">
         <v>104</v>
       </c>
-      <c r="D14" t="s">
-        <v>102</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
         <v>103</v>
       </c>
       <c r="F14" t="s">
@@ -1270,12 +1268,12 @@
         <v>109</v>
       </c>
       <c r="C15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" t="s">
         <v>112</v>
       </c>
-      <c r="D15" t="s">
-        <v>110</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" t="s">
         <v>111</v>
       </c>
       <c r="F15" t="s">
@@ -1374,18 +1372,6 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E516AF4A-0E5E-421D-9915-513FF7E76FBA}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/data/cleaned_data/Krankenhäuser.xlsx
+++ b/data/cleaned_data/Krankenhäuser.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathan.bach/Documents/GitHub/Repositorys/Streamlit-Application-for-Data-Literacy-1/data/cleaned_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathan.bach/Documents/GitHub/Repositorys/Streamlit-Application-for-Data-Literacy-2/data/cleaned_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF451BA-155B-3441-AEAE-6D799C0099FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2842CB8-5FA1-FE4B-9BBA-57BDC380179B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="19420" windowHeight="10300" xr2:uid="{BBFABB22-232B-4A0A-A1BA-02F91EC2A332}"/>
   </bookViews>
@@ -395,9 +395,6 @@
     <t>71,2</t>
   </si>
   <si>
-    <t xml:space="preserve">Jahre </t>
-  </si>
-  <si>
     <t>Krankenhäuser Anzahl</t>
   </si>
   <si>
@@ -420,6 +417,9 @@
   </si>
   <si>
     <t>Durchschnittliche Bettenauslastung Prozent</t>
+  </si>
+  <si>
+    <t>Jahre</t>
   </si>
 </sst>
 </file>
@@ -524,7 +524,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8C055951-EAE8-46F2-BD76-F0EE648DADAB}" name="Krankenhäuser" displayName="Krankenhäuser" ref="A1:I18" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:I18" xr:uid="{8C055951-EAE8-46F2-BD76-F0EE648DADAB}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{B4C05326-5427-4DC9-8DEE-554CA5C6B9B8}" uniqueName="1" name="Jahre " queryTableFieldId="1" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{B4C05326-5427-4DC9-8DEE-554CA5C6B9B8}" uniqueName="1" name="Jahre" queryTableFieldId="1" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{E6F49419-E79A-4690-81B7-013B96FA5BDD}" uniqueName="2" name="Krankenhäuser Anzahl" queryTableFieldId="2" dataDxfId="7"/>
     <tableColumn id="3" xr3:uid="{085A961F-9FE9-4D66-9382-6AC5DD3F9F38}" uniqueName="3" name="Betten Anzahl" queryTableFieldId="3" dataDxfId="6"/>
     <tableColumn id="4" xr3:uid="{48834E90-3490-46A0-8F84-A40EB2037C70}" uniqueName="4" name="Patienten Anzahl" queryTableFieldId="4" dataDxfId="5"/>
@@ -837,9 +837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B893BA6-2283-4461-B8B1-0D582D7FDDF4}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -856,31 +854,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" t="s">
         <v>116</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>117</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" t="s">
         <v>118</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>120</v>
       </c>
-      <c r="E1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>121</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>122</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>123</v>
-      </c>
-      <c r="I1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
